--- a/Test/test_topdown_hits_RTcalibration.xlsx
+++ b/Test/test_topdown_hits_RTcalibration.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lschaffer2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lschaffer2\Documents\GitClones\ProteoformSuite\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF903BD2-D225-4DA5-9EE8-911697DC06BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BB9CFD-5731-4BE4-A772-940D0747E1D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -540,7 +540,7 @@
   <dimension ref="A1:X63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,7 +675,7 @@
         <v>6533.6732000000002</v>
       </c>
       <c r="R2">
-        <v>1873</v>
+        <v>38</v>
       </c>
       <c r="S2">
         <v>45.035913000000001</v>
@@ -749,7 +749,7 @@
         <v>6533.6752999999999</v>
       </c>
       <c r="R3">
-        <v>1844</v>
+        <v>9</v>
       </c>
       <c r="S3">
         <v>44.309094000000002</v>
@@ -823,7 +823,7 @@
         <v>6847.7898999999998</v>
       </c>
       <c r="R4">
-        <v>1898</v>
+        <v>63</v>
       </c>
       <c r="S4">
         <v>45.753621000000003</v>
@@ -897,7 +897,7 @@
         <v>6660.3163000000004</v>
       </c>
       <c r="R5">
-        <v>1886</v>
+        <v>51</v>
       </c>
       <c r="S5">
         <v>45.348998000000002</v>
@@ -971,7 +971,7 @@
         <v>6731.3640999999998</v>
       </c>
       <c r="R6">
-        <v>1885</v>
+        <v>50</v>
       </c>
       <c r="S6">
         <v>45.281970000000001</v>
@@ -1045,7 +1045,7 @@
         <v>6982.9976999999999</v>
       </c>
       <c r="R7">
-        <v>1870</v>
+        <v>1</v>
       </c>
       <c r="S7">
         <v>44.952041000000001</v>
@@ -1119,7 +1119,7 @@
         <v>6532.6985999999997</v>
       </c>
       <c r="R8">
-        <v>1506</v>
+        <v>1</v>
       </c>
       <c r="S8">
         <v>42.679496999999998</v>
@@ -1193,7 +1193,7 @@
         <v>6535.6596</v>
       </c>
       <c r="R9">
-        <v>1506</v>
+        <v>1</v>
       </c>
       <c r="S9">
         <v>42.679496999999998</v>
@@ -1267,7 +1267,7 @@
         <v>6533.7101000000002</v>
       </c>
       <c r="R10">
-        <v>1508</v>
+        <v>1</v>
       </c>
       <c r="S10">
         <v>42.706853000000002</v>
@@ -1341,7 +1341,7 @@
         <v>6533.7101000000002</v>
       </c>
       <c r="R11">
-        <v>1508</v>
+        <v>1</v>
       </c>
       <c r="S11">
         <v>42.706853000000002</v>
@@ -1415,7 +1415,7 @@
         <v>6533.6952000000001</v>
       </c>
       <c r="R12">
-        <v>1509</v>
+        <v>1</v>
       </c>
       <c r="S12">
         <v>42.715834000000001</v>
@@ -1489,7 +1489,7 @@
         <v>6533.6952000000001</v>
       </c>
       <c r="R13">
-        <v>1509</v>
+        <v>1</v>
       </c>
       <c r="S13">
         <v>42.715834000000001</v>
@@ -1563,7 +1563,7 @@
         <v>6533.6751999999997</v>
       </c>
       <c r="R14">
-        <v>1511</v>
+        <v>1</v>
       </c>
       <c r="S14">
         <v>42.743153</v>
@@ -1637,7 +1637,7 @@
         <v>6533.6751999999997</v>
       </c>
       <c r="R15">
-        <v>1511</v>
+        <v>1</v>
       </c>
       <c r="S15">
         <v>42.743153</v>
@@ -1711,7 +1711,7 @@
         <v>6533.6576999999997</v>
       </c>
       <c r="R16">
-        <v>1512</v>
+        <v>1</v>
       </c>
       <c r="S16">
         <v>42.752999000000003</v>
@@ -1785,7 +1785,7 @@
         <v>6533.6576999999997</v>
       </c>
       <c r="R17">
-        <v>1512</v>
+        <v>1</v>
       </c>
       <c r="S17">
         <v>42.752999000000003</v>
@@ -1859,7 +1859,7 @@
         <v>6533.6710999999996</v>
       </c>
       <c r="R18">
-        <v>1535</v>
+        <v>1</v>
       </c>
       <c r="S18">
         <v>43.08249</v>
@@ -1933,7 +1933,7 @@
         <v>6533.6710999999996</v>
       </c>
       <c r="R19">
-        <v>1535</v>
+        <v>1</v>
       </c>
       <c r="S19">
         <v>43.08249</v>
@@ -2007,7 +2007,7 @@
         <v>6533.6718000000001</v>
       </c>
       <c r="R20">
-        <v>1539</v>
+        <v>1</v>
       </c>
       <c r="S20">
         <v>43.187745</v>
@@ -2081,7 +2081,7 @@
         <v>6533.6698999999999</v>
       </c>
       <c r="R21">
-        <v>1541</v>
+        <v>1</v>
       </c>
       <c r="S21">
         <v>43.214243000000003</v>
@@ -2155,7 +2155,7 @@
         <v>6533.6698999999999</v>
       </c>
       <c r="R22">
-        <v>1541</v>
+        <v>1</v>
       </c>
       <c r="S22">
         <v>43.214243000000003</v>
@@ -2229,7 +2229,7 @@
         <v>6533.6643999999997</v>
       </c>
       <c r="R23">
-        <v>1551</v>
+        <v>1</v>
       </c>
       <c r="S23">
         <v>43.375045999999998</v>
@@ -2303,7 +2303,7 @@
         <v>6533.6707999999999</v>
       </c>
       <c r="R24">
-        <v>1559</v>
+        <v>1</v>
       </c>
       <c r="S24">
         <v>43.489220000000003</v>
@@ -2377,7 +2377,7 @@
         <v>6533.6707999999999</v>
       </c>
       <c r="R25">
-        <v>1559</v>
+        <v>1</v>
       </c>
       <c r="S25">
         <v>43.489220000000003</v>
@@ -2451,7 +2451,7 @@
         <v>6533.6806999999999</v>
       </c>
       <c r="R26">
-        <v>1572</v>
+        <v>1</v>
       </c>
       <c r="S26">
         <v>43.688457999999997</v>
@@ -2525,7 +2525,7 @@
         <v>6983.0099</v>
       </c>
       <c r="R27">
-        <v>1641</v>
+        <v>1</v>
       </c>
       <c r="S27">
         <v>44.593223000000002</v>
@@ -2599,7 +2599,7 @@
         <v>6983.0099</v>
       </c>
       <c r="R28">
-        <v>1641</v>
+        <v>1</v>
       </c>
       <c r="S28">
         <v>44.593223000000002</v>
@@ -2673,7 +2673,7 @@
         <v>6983.0110999999997</v>
       </c>
       <c r="R29">
-        <v>1643</v>
+        <v>1</v>
       </c>
       <c r="S29">
         <v>44.620449000000001</v>
@@ -2747,7 +2747,7 @@
         <v>6983.0110999999997</v>
       </c>
       <c r="R30">
-        <v>1643</v>
+        <v>1</v>
       </c>
       <c r="S30">
         <v>44.620449000000001</v>
@@ -2821,7 +2821,7 @@
         <v>6983.0102999999999</v>
       </c>
       <c r="R31">
-        <v>1644</v>
+        <v>1</v>
       </c>
       <c r="S31">
         <v>44.629430999999997</v>
@@ -2895,7 +2895,7 @@
         <v>6983.0102999999999</v>
       </c>
       <c r="R32">
-        <v>1644</v>
+        <v>1</v>
       </c>
       <c r="S32">
         <v>44.629430999999997</v>
@@ -2969,7 +2969,7 @@
         <v>6983.0055000000002</v>
       </c>
       <c r="R33">
-        <v>1646</v>
+        <v>1</v>
       </c>
       <c r="S33">
         <v>44.656661999999997</v>
@@ -3043,7 +3043,7 @@
         <v>6983.0055000000002</v>
       </c>
       <c r="R34">
-        <v>1646</v>
+        <v>1</v>
       </c>
       <c r="S34">
         <v>44.656661999999997</v>
@@ -3117,7 +3117,7 @@
         <v>6983.0063</v>
       </c>
       <c r="R35">
-        <v>1653</v>
+        <v>1</v>
       </c>
       <c r="S35">
         <v>44.738067000000001</v>
@@ -3191,7 +3191,7 @@
         <v>6983.0063</v>
       </c>
       <c r="R36">
-        <v>1653</v>
+        <v>1</v>
       </c>
       <c r="S36">
         <v>44.738067000000001</v>
@@ -3265,7 +3265,7 @@
         <v>6983.0038000000004</v>
       </c>
       <c r="R37">
-        <v>1655</v>
+        <v>1</v>
       </c>
       <c r="S37">
         <v>44.765298999999999</v>
@@ -3339,7 +3339,7 @@
         <v>6983.0038000000004</v>
       </c>
       <c r="R38">
-        <v>1655</v>
+        <v>1</v>
       </c>
       <c r="S38">
         <v>44.765298999999999</v>
@@ -3413,7 +3413,7 @@
         <v>6983.0042000000003</v>
       </c>
       <c r="R39">
-        <v>1656</v>
+        <v>1</v>
       </c>
       <c r="S39">
         <v>44.775610999999998</v>
@@ -3487,7 +3487,7 @@
         <v>6983.0042000000003</v>
       </c>
       <c r="R40">
-        <v>1656</v>
+        <v>1</v>
       </c>
       <c r="S40">
         <v>44.775610999999998</v>
@@ -3561,7 +3561,7 @@
         <v>6982.9934000000003</v>
       </c>
       <c r="R41">
-        <v>1659</v>
+        <v>1</v>
       </c>
       <c r="S41">
         <v>44.817031999999998</v>
@@ -3635,7 +3635,7 @@
         <v>6982.9934000000003</v>
       </c>
       <c r="R42">
-        <v>1659</v>
+        <v>1</v>
       </c>
       <c r="S42">
         <v>44.817031999999998</v>
@@ -3709,7 +3709,7 @@
         <v>6731.35</v>
       </c>
       <c r="R43">
-        <v>1686</v>
+        <v>1</v>
       </c>
       <c r="S43">
         <v>45.153933000000002</v>
@@ -3783,7 +3783,7 @@
         <v>6731.3440000000001</v>
       </c>
       <c r="R44">
-        <v>1688</v>
+        <v>1</v>
       </c>
       <c r="S44">
         <v>45.181164000000003</v>
@@ -3857,7 +3857,7 @@
         <v>6660.3104999999996</v>
       </c>
       <c r="R45">
-        <v>1692</v>
+        <v>1</v>
       </c>
       <c r="S45">
         <v>45.226655999999998</v>
@@ -3931,7 +3931,7 @@
         <v>6660.3113000000003</v>
       </c>
       <c r="R46">
-        <v>1694</v>
+        <v>1</v>
       </c>
       <c r="S46">
         <v>45.256176000000004</v>
@@ -4005,7 +4005,7 @@
         <v>6660.3086999999996</v>
       </c>
       <c r="R47">
-        <v>1697</v>
+        <v>1</v>
       </c>
       <c r="S47">
         <v>45.310417000000001</v>
@@ -4079,7 +4079,7 @@
         <v>6847.7951999999996</v>
       </c>
       <c r="R48">
-        <v>1719</v>
+        <v>1</v>
       </c>
       <c r="S48">
         <v>45.658453999999999</v>
@@ -4153,7 +4153,7 @@
         <v>6847.7951999999996</v>
       </c>
       <c r="R49">
-        <v>1719</v>
+        <v>1</v>
       </c>
       <c r="S49">
         <v>45.658453999999999</v>
@@ -4227,7 +4227,7 @@
         <v>6847.82</v>
       </c>
       <c r="R50">
-        <v>1722</v>
+        <v>1</v>
       </c>
       <c r="S50">
         <v>45.694682999999998</v>
@@ -4301,7 +4301,7 @@
         <v>6847.82</v>
       </c>
       <c r="R51">
-        <v>1722</v>
+        <v>1</v>
       </c>
       <c r="S51">
         <v>45.694682999999998</v>
@@ -4375,7 +4375,7 @@
         <v>6847.8216000000002</v>
       </c>
       <c r="R52">
-        <v>1724</v>
+        <v>1</v>
       </c>
       <c r="S52">
         <v>45.721929000000003</v>
@@ -4449,7 +4449,7 @@
         <v>6847.8216000000002</v>
       </c>
       <c r="R53">
-        <v>1724</v>
+        <v>1</v>
       </c>
       <c r="S53">
         <v>45.721929000000003</v>
@@ -4523,7 +4523,7 @@
         <v>6847.8100999999997</v>
       </c>
       <c r="R54">
-        <v>1725</v>
+        <v>1</v>
       </c>
       <c r="S54">
         <v>45.730910000000002</v>
@@ -4597,7 +4597,7 @@
         <v>6847.8100999999997</v>
       </c>
       <c r="R55">
-        <v>1725</v>
+        <v>1</v>
       </c>
       <c r="S55">
         <v>45.730910000000002</v>
@@ -4671,7 +4671,7 @@
         <v>6847.7983000000004</v>
       </c>
       <c r="R56">
-        <v>1727</v>
+        <v>1</v>
       </c>
       <c r="S56">
         <v>45.758153999999998</v>
@@ -4745,7 +4745,7 @@
         <v>6847.7983000000004</v>
       </c>
       <c r="R57">
-        <v>1727</v>
+        <v>1</v>
       </c>
       <c r="S57">
         <v>45.758153999999998</v>
@@ -4819,7 +4819,7 @@
         <v>6847.7955000000002</v>
       </c>
       <c r="R58">
-        <v>1728</v>
+        <v>1</v>
       </c>
       <c r="S58">
         <v>45.767136999999998</v>
@@ -4893,7 +4893,7 @@
         <v>6847.7955000000002</v>
       </c>
       <c r="R59">
-        <v>1728</v>
+        <v>1</v>
       </c>
       <c r="S59">
         <v>45.767136999999998</v>
@@ -4967,7 +4967,7 @@
         <v>6847.7973000000002</v>
       </c>
       <c r="R60">
-        <v>1730</v>
+        <v>1</v>
       </c>
       <c r="S60">
         <v>45.794381999999999</v>
@@ -5041,7 +5041,7 @@
         <v>6847.7973000000002</v>
       </c>
       <c r="R61">
-        <v>1730</v>
+        <v>1</v>
       </c>
       <c r="S61">
         <v>45.794381999999999</v>
@@ -5112,7 +5112,7 @@
         <v>6847.7798000000003</v>
       </c>
       <c r="R62">
-        <v>1731</v>
+        <v>1</v>
       </c>
       <c r="S62">
         <v>45.824378000000003</v>
@@ -5186,7 +5186,7 @@
         <v>6847.7798000000003</v>
       </c>
       <c r="R63">
-        <v>1731</v>
+        <v>1</v>
       </c>
       <c r="S63">
         <v>45.824378000000003</v>
